--- a/output/cluster.game_error.json/game.result.xlsx
+++ b/output/cluster.game_error.json/game.result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,13 +439,13 @@
     <col customWidth="1" max="4" min="4" width="10"/>
     <col customWidth="1" max="5" min="5" width="10"/>
     <col customWidth="1" max="6" min="6" width="7"/>
-    <col customWidth="1" max="7" min="7" width="12"/>
-    <col customWidth="1" max="8" min="8" width="83"/>
+    <col customWidth="1" max="7" min="7" width="19"/>
+    <col customWidth="1" max="8" min="8" width="84"/>
     <col customWidth="1" max="9" min="9" width="12"/>
-    <col customWidth="1" max="10" min="10" width="13"/>
+    <col customWidth="1" max="10" min="10" width="14"/>
     <col customWidth="1" max="11" min="11" width="8"/>
-    <col customWidth="1" max="12" min="12" width="9"/>
-    <col customWidth="1" max="13" min="13" width="145"/>
+    <col customWidth="1" max="12" min="12" width="263"/>
+    <col customWidth="1" max="13" min="13" width="185"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="15" r="1">
@@ -515,7 +515,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="270" r="2">
+    <row customHeight="1" ht="45" r="2">
       <c r="A2" t="inlineStr">
         <is>
           <t>game</t>
@@ -535,54 +535,250 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="F2" t="n">
+        <v>9</v>
+      </c>
+      <c r="G2" t="n">
+        <v>75</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[inspect]     C:\__WorldX_P4\server\Engine/Core\Common\inspect.lua:369</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2024/11/30</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>yingjie.cao</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>366298</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>58735: sinong.chen 2023/08/08       local next_info = debug.getinfo(2) or {}
+366298: yingjie.cao 2024/11/30      if LoggerManager.checkLogger(LoggerConst.ERROR) then logger:error("inspect table to string too long, len=%s, %s:%s, %s:%s", string.len(result), info.short_src, info.currentline, next_info.short_src, next_info.currentline) end
+53853: sinong.chen 2023/07/04     end</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>MESSAGE: inspect table to string too long, len=35004, ...SpaceEntities\CommonComponent\ServerAbilityComponent.lua:1592, ...4\server\Scripts/CustomTypesServerMethods\TriggerMap.lua:165</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="45" r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>game</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CALLER</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F3" t="n">
         <v>1</v>
       </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>[_innerHandle]     ...\server\Engine/Core\Framework\SafeCallbackWithReturn.lua:20</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>2024/11/30</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>yingjie.cao</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>366298</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>MESSAGE: SafeCallbackWithReturn traceback occurred 
-	...P4\server\Scripts/GameServer\Gm\GmComponent\PlayerGm.lua:1498: attempt to call method 'addPetById' (a nil value)
+      <c r="G3" t="n">
+        <v>8.333333333333332</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[createEntityLocally]     C:\__WorldX_P4\server\Engine/Core\Server\GameAPI.lua:67</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2022/11/15</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>sinong.chen</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>2149</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>2149: sinong.chen 2022/11/15         local ex = err or "unknown error occurred"
+2149: sinong.chen 2022/11/15         logger:error("%s createEntityLocally init failed", entityId)
+2149: sinong.chen 2022/11/15         exceptionError = ex</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>MESSAGE: Z1PL1FyPmXGDg09J createEntityLocally init failed</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="360" r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>game</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CALLER</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8.333333333333332</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[onTraceback]     ...er\Scripts/Entities\GlobalEntities\GameEventCallback.lua:167</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2022/10/18</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>xiaotian.wen</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>17: xiaotian.wen 2022/10/18 function GameEventCallback:onTraceback(ex)
+17: xiaotian.wen 2022/10/18     traceLogger:error("GameEventCallback:onTraceback " .. ex)
+17: xiaotian.wen 2022/10/18 end</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>MESSAGE: GameEventCallback:onTraceback ...dX_P4\server\Scripts/Entities\SpaceEntities\Creation.lua:173: attempt to index local 'masterEntity' (a nil value)
 stack traceback:
-	...P4\server\Scripts/GameServer\Gm\GmComponent\PlayerGm.lua:1498: in function 'cb'
-	...\server\Engine/Core\Framework\SafeCallbackWithReturn.lua:11: in function &lt;...\server\Engine/Core\Framework\SafeCallbackWithReturn.lua:10&gt;
+	...dX_P4\server\Scripts/Entities\SpaceEntities\Creation.lua:173: in function 'inheritProps'
+	...dX_P4\server\Scripts/Entities\SpaceEntities\Creation.lua:188: in function 'overrideFunc'
+	C:\__WorldX_P4\server\Engine/Core\Framework\Class.lua:279: in function 'start'
+	C:\__WorldX_P4\server\Engine/Core\Server\GameAPI.lua:61: in function &lt;C:\__WorldX_P4\server\Engine/Core\Server\GameAPI.lua:57&gt;
 	[C]: in function 'xpcall'
-	...\server\Engine/Core\Framework\SafeCallbackWithReturn.lua:17: in function '_innerHandle'
-	C:\__WorldX_P4\server\Engine/Core\Server\GmHandler.lua:96: in function 'handle'
-	...rldX_P4\server\Scripts/Entities\SpaceEntities\Player.lua:1203: in function 'execGmMsg'
-	...rldX_P4\server\Scripts/Entities\SpaceEntities\Player.lua:1215: in function 'method'
-	...ities\SpaceEntities\PlayerComponent\MigrateComponent.lua:120: in function 'method'
-	...dX_P4\server\Engine/Core\Server\MsGateGameRpcHandler.lua:130: in function &lt;...dX_P4\server\Engine/Core\Server\MsGateGameRpcHandler.lua:108&gt;
-	C:\__WorldX_P4\server\Engine/Core\Net\HandlerManager.lua:32: in function &lt;C:\__WorldX_P4\server\Engine/Core\Net\HandlerManager.lua:26&gt;
+	C:\__WorldX_P4\server\Engine/Core\Server\GameAPI.lua:57: in function 'createEntityLocally'
+	...rver\Scripts/Entities\SpaceEntities\SpaceClass\Space.lua:664: in function 'createEntity'
+	...pts/Entities\SpaceEntities\SpaceSpawner\SpaceSpawner.lua:465: in function &lt;...pts/Entities\SpaceEntities\SpaceSpawner\SpaceSpawner.lua:424&gt;
+	[C]: in function 'xpcall'
+	..._WorldX_P4\server\Engine/Core\Framework\SafeCallback.lua:11: in function 'SafeCallback'
+	...pts/Entities\SpaceEntities\SpaceSpawner\SpaceSpawner.lua:395: in function '_randomGroupAndCreateEntityCb'
+	...
+	...rver\Scripts/Entities\SpaceEntities\SpaceClass\Space.lua:184: in function 'tick'
+	...cripts/Entities\SpaceEntities\SpaceClass\SingleWorld.lua:161: in function &lt;...cripts/Entities\SpaceEntities\SpaceClass\SingleWorld.lua:160&gt;
+	[C]: in function 'xpcall'
+	C:\__WorldX_P4\server\Engine/Core\Common\TickManager.lua:55: in function 'handler'
+	C:\__WorldX_P4\server\Engine/Core\Timer\TimerManager.lua:173: in function &lt;C:\__WorldX_P4\server\Engine/Core\Timer\TimerManager.lua:165&gt;
 	[C]: in function 'pullIO'
 	C:\__WorldX_P4\server\Engine/Core\Net\Scheduler.lua:12: in function 'poll'
 	C:\__WorldX_P4\server\Engine/Core\Server\Game.lua:498: in function 'start'
 	C:\__WorldX_P4\server\Scripts\main.lua:94: in main chunk
-	[C]: at 0x7ff73d204820</t>
+	[C]: at 0x7ff7b9704820</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="45" r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>game</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CALLER</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>EQUAL</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>8.333333333333332</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[createEntity]     ...rver\Scripts/Entities\SpaceEntities\SpaceClass\Space.lua:666</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2022/11/15</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>sinong.chen</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>2149</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>17: xiaotian.wen 2022/10/18     if not ent then
+2149: sinong.chen 2022/11/15         self.logger:error("GameAPI.createEntityLocally failed, ent is nil, props.id = ", props.id)
+2149: sinong.chen 2022/11/15         return nil</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>MESSAGE: GameAPI.createEntityLocally failed, ent is nil, props.id = 	Z1PL1FyPmXGDg09J</t>
         </is>
       </c>
     </row>
